--- a/public/excel/format_pbj/pbjelsyin1.xlsx
+++ b/public/excel/format_pbj/pbjelsyin1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15804C3-9F97-4AC3-8A10-32B629DE4629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E7D88-8C53-490B-919D-D2CB17C95AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,7 +730,7 @@
     <t>Martapura, 17 Agustus 1985</t>
   </si>
   <si>
-    <t>Aek Nabara, Jakarta, 16 Desember 1985</t>
+    <t>Aek Nabara, 16 Desember 1985</t>
   </si>
 </sst>
 </file>
@@ -1215,9 +1215,9 @@
   </sheetPr>
   <dimension ref="A1:AG127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/public/excel/format_pbj/pbjelsyin1.xlsx
+++ b/public/excel/format_pbj/pbjelsyin1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F2BD7-4C7F-4C40-A108-F4EF0D4766D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA252EF-E4B9-4CFD-92A8-AAC748455411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="248">
   <si>
     <t>apt. Lusiana Dwi Utami, S.Farm</t>
   </si>
@@ -737,6 +737,51 @@
   </si>
   <si>
     <t>tempat_tanggal_lahir</t>
+  </si>
+  <si>
+    <t>nama_tanpa_gelar</t>
+  </si>
+  <si>
+    <t>Lusiana Dwi Utami</t>
+  </si>
+  <si>
+    <t>Muhammad Robby Setiawan</t>
+  </si>
+  <si>
+    <t>Besrinal</t>
+  </si>
+  <si>
+    <t>Rizal Herliawan</t>
+  </si>
+  <si>
+    <t>Demianus Kowi</t>
+  </si>
+  <si>
+    <t>Novita Pradani</t>
+  </si>
+  <si>
+    <t>Nurhayati</t>
+  </si>
+  <si>
+    <t>Firmansyah</t>
+  </si>
+  <si>
+    <t>Lukman Nur Hakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agung Kresnamurti Rivai Prabumenang </t>
+  </si>
+  <si>
+    <t>Natalia Chandra Wijayanti</t>
+  </si>
+  <si>
+    <t>Lulus Madia Mulani</t>
+  </si>
+  <si>
+    <t>Ruri Rizki Syahputri Zuhri</t>
+  </si>
+  <si>
+    <t>Akhmad Jarkawi</t>
   </si>
 </sst>
 </file>
@@ -880,7 +925,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,6 +977,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,167 +1263,173 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG127"/>
+  <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43.140625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="18.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="66.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="68.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="33" width="18.85546875" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="12.5703125" style="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="85.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="18.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" style="1" customWidth="1"/>
+    <col min="13" max="17" width="18.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="41.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="66.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="68.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="18.85546875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>211</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="18">
+      <c r="M2" s="18">
         <v>10540</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="24"/>
       <c r="S2" s="24"/>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -1387,71 +1440,74 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="18">
+      <c r="M3" s="18">
         <v>14350</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="P3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="24"/>
       <c r="S3" s="24"/>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1462,71 +1518,74 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="18">
+      <c r="M4" s="18">
         <v>36513</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="24"/>
       <c r="S4" s="24"/>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1537,71 +1596,74 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="18">
+      <c r="M5" s="18">
         <v>36513</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="N5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="O5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="P5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="Q5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="R5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="24"/>
       <c r="S5" s="24"/>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1612,71 +1674,74 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="18">
+      <c r="M6" s="18">
         <v>98315</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="O6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="R6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="24"/>
       <c r="S6" s="24"/>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1687,71 +1752,74 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="1:33" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="18">
+      <c r="M7" s="18">
         <v>94118</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="N7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="O7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="P7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="Q7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="R7" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="24"/>
       <c r="S7" s="24"/>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="24"/>
+      <c r="U7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -1762,71 +1830,74 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="18">
+      <c r="I8" s="18">
         <v>20191002030</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="J8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="18">
+      <c r="M8" s="18">
         <v>15416</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="O8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="P8" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="Q8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="S8" s="24"/>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="24"/>
+      <c r="U8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -1837,71 +1908,74 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="18">
+      <c r="I9" s="18">
         <v>20191001029</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="J9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="18">
+      <c r="M9" s="18">
         <v>15416</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="N9" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="O9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="P9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="Q9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="R9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="24"/>
       <c r="S9" s="24"/>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="24"/>
+      <c r="U9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -1912,71 +1986,74 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="K10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="L10" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="18">
+      <c r="M10" s="18">
         <v>29428</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="O10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="P10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="Q10" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="R10" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="R10" s="24"/>
       <c r="S10" s="24"/>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="24"/>
+      <c r="U10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -1987,71 +2064,74 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="I11" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="K11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L11" s="18">
+      <c r="M11" s="18">
         <v>13220</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="N11" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="O11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="P11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="Q11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="R11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="R11" s="24"/>
       <c r="S11" s="24"/>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="24"/>
+      <c r="U11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -2062,71 +2142,74 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="J12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="K12" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="18">
+      <c r="M12" s="18">
         <v>11420</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="N12" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="O12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="P12" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="Q12" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="R12" s="24"/>
+      <c r="R12" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="S12" s="24"/>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="24"/>
+      <c r="U12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -2137,71 +2220,74 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="K13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="18">
+      <c r="M13" s="18">
         <v>11420</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="O13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="P13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="Q13" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="R13" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="R13" s="24"/>
       <c r="S13" s="24"/>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="24"/>
+      <c r="U13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -2212,66 +2298,69 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
     </row>
-    <row r="14" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="18" t="str">
-        <f>PROPER(M14)</f>
+      <c r="H14" s="18" t="str">
+        <f>PROPER(N14)</f>
         <v>Pt Sei Mangkei Nusantara Tiga</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="K14" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="L14" s="18">
+      <c r="M14" s="18">
         <v>21183</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="O14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="P14" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="24"/>
+      <c r="R14" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="S14" s="24"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="24"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="3"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -2282,63 +2371,66 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="K15" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="L15" s="18">
+      <c r="M15" s="18">
         <v>21183</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="O15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="P15" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="Q15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="R15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="24"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="3"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -2349,71 +2441,74 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:33" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="8">
         <v>81346337603</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="I16" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="J16" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="L16" s="23">
+      <c r="M16" s="23">
         <v>70611</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="N16" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="O16" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="P16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="Q16" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="R16" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="25"/>
+      <c r="U16" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -2424,9 +2519,10 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
     </row>
-    <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="12"/>
+    <row r="20" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="12"/>
     </row>
     <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2504,45 +2600,45 @@
     <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="T3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="U3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="V3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="T4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="U4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="V4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="U5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="V5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="T6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="U6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="V6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="T7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="U7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="V7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="T8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="U8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="V8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="T9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="U9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="V9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="T10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="U10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="V10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="U11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="V11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="T16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="U16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="V16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="T12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="U12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="V12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="T13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="U13" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="V13" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="U3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="U4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="W4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="U5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="W5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="U6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="W6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="U7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="W7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="U8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="W8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="U9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="W9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="U10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="W10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="U11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="W11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="U16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="W16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="U12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="V12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="W12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="U13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V13" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="W13" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId40"/>
